--- a/biology/Botanique/Amarante_blanche/Amarante_blanche.xlsx
+++ b/biology/Botanique/Amarante_blanche/Amarante_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amaranthus albus
-L'amarante blanche (Amaranthus albus) est une espèce de plante herbacée annuelle de la famille des Amaranthaceae ou des Chenopodiaceae selon la classification classique de Cronquist (1981)[1].
+L'amarante blanche (Amaranthus albus) est une espèce de plante herbacée annuelle de la famille des Amaranthaceae ou des Chenopodiaceae selon la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : épi simple
@@ -549,10 +563,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Habitat type : friches annuelles, nitrophiles, thermophiles
-Aire de répartition : introduit (Amérique du Nord)[2]</t>
+Aire de répartition : introduit (Amérique du Nord)</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amarante blanche est l'une des espèces susceptibles de produire des virevoltants, ces fameuses boules de buisson sec roulées par les vents du désert, qu'ont popularisées les westerns.
 </t>
